--- a/Case Studies/Resized Benchy/Print times.xlsx
+++ b/Case Studies/Resized Benchy/Print times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\UT AUSTIN\Sha Lab\Research\Placement\Placement\Case Studies\Resized Benchy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhw542\Documents\Coding\Placement\Case Studies\Resized Benchy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F108091C-5DF9-4C04-A430-07E105F54A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD25FC-24AC-4A69-8B82-9413D0D7C56E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2835" windowWidth="29040" windowHeight="16440" xr2:uid="{F521B8F1-06A0-48AF-9281-F1564FF20E0F}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Layer 1</t>
   </si>
@@ -446,7 +436,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="1">((H4*24)+I4)*60+J4</f>
+        <f t="shared" ref="K4:K8" si="1">((H4*24)+I4)*60+J4</f>
         <v>722</v>
       </c>
       <c r="M4" t="s">
@@ -802,11 +792,11 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -825,6 +815,22 @@
       <c r="E8">
         <f t="shared" si="0"/>
         <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
